--- a/docs/Examples/Example4_H2OQuant_Glass/H2O_Silicate_areas.xlsx
+++ b/docs/Examples/Example4_H2OQuant_Glass/H2O_Silicate_areas.xlsx
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.928981975447005</v>
+        <v>3.928981975446791</v>
       </c>
       <c r="E2" t="n">
-        <v>3.928358555082333</v>
+        <v>3.928358555082121</v>
       </c>
       <c r="F2" t="n">
-        <v>274807.3951902216</v>
+        <v>274807.3951902158</v>
       </c>
       <c r="G2" t="n">
-        <v>274611.003727649</v>
+        <v>274611.0037276433</v>
       </c>
       <c r="H2" t="n">
-        <v>362558.1001103034</v>
+        <v>362558.1001103033</v>
       </c>
       <c r="I2" t="n">
-        <v>362562.4019588798</v>
+        <v>362562.4019588797</v>
       </c>
       <c r="J2" t="n">
         <v>300</v>
@@ -606,22 +606,22 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>69943.66400954447</v>
+        <v>69943.66400954682</v>
       </c>
       <c r="P2" t="n">
-        <v>69904.77062547402</v>
+        <v>69904.77062547633</v>
       </c>
       <c r="Q2" t="n">
-        <v>69943.66400954447</v>
+        <v>69943.66400954682</v>
       </c>
       <c r="R2" t="n">
-        <v>69904.77062547402</v>
+        <v>69904.77062547633</v>
       </c>
       <c r="S2" t="n">
-        <v>11333.33293344577</v>
+        <v>11333.3329334461</v>
       </c>
       <c r="T2" t="n">
-        <v>11342.72909667936</v>
+        <v>11342.72909667969</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
